--- a/src/test/resources/TestData/CreateUser.xlsx
+++ b/src/test/resources/TestData/CreateUser.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\eclipse-workspace\APITesting\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1447E3F-F354-4F57-8220-408AA945DFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266AED6D-B094-4E85-B188-66E23DCA7F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{930D8753-06A4-4D47-9FD2-9B718257451E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -36,10 +36,16 @@
     <t>job</t>
   </si>
   <si>
-    <t xml:space="preserve">rajappa </t>
-  </si>
-  <si>
     <t>solution architect</t>
+  </si>
+  <si>
+    <t>Adhiyan</t>
+  </si>
+  <si>
+    <t>School Kid</t>
+  </si>
+  <si>
+    <t>Vanaja</t>
   </si>
 </sst>
 </file>
@@ -391,16 +397,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFD5A28-43D0-4E73-9201-07C7FEF3A151}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -417,10 +423,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
